--- a/FouexUpTime-Test1.xlsx
+++ b/FouexUpTime-Test1.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788" activeTab="7"/>
+    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788"/>
   </bookViews>
   <sheets>
-    <sheet name="Totals" sheetId="1" r:id="rId1"/>
+    <sheet name="Last 7 Days" sheetId="1" r:id="rId1"/>
     <sheet name="Today" sheetId="2" r:id="rId2"/>
     <sheet name="(Day1)" sheetId="9" r:id="rId3"/>
     <sheet name="(Day2)" sheetId="10" r:id="rId4"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="44">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -151,6 +151,9 @@
   <si>
     <t xml:space="preserve">Westfields2 0017 </t>
   </si>
+  <si>
+    <t>Totals</t>
+  </si>
 </sst>
 </file>
 
@@ -226,8 +229,7 @@
     <c:view3D>
       <c:rotX val="15"/>
       <c:rotY val="20"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="30"/>
+      <c:rAngAx val="1"/>
     </c:view3D>
     <c:floor>
       <c:thickness val="0"/>
@@ -241,7 +243,7 @@
     <c:plotArea>
       <c:layout/>
       <c:bar3DChart>
-        <c:barDir val="bar"/>
+        <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -249,138 +251,61 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>Totals!$I$21:$I$41</c:f>
-              <c:strCache>
-                <c:ptCount val="21"/>
+            <c:numRef>
+              <c:f>'Last 7 Days'!$I$3:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>43404</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v> </c:v>
+                  <c:v>43403</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> </c:v>
+                  <c:v>43402</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> </c:v>
+                  <c:v>43401</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> </c:v>
+                  <c:v>43400</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> </c:v>
+                  <c:v>43399</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v> </c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v> </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totals!$J$21:$J$41</c:f>
+              <c:f>'Last 7 Days'!$J$3:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="21"/>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>99.89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>98.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>94.55</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>95.78</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>97.67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>99.78</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>99.78</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>98.78</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>97.99</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>96.9</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>95.78</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>90.67</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>87.9</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>86.89</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>85.89</c:v>
+                  <c:v>89.88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -396,40 +321,41 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="149816832"/>
-        <c:axId val="149818368"/>
+        <c:axId val="138355840"/>
+        <c:axId val="138357376"/>
         <c:axId val="0"/>
       </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="149816832"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149818368"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="149818368"/>
+      <c:dateAx>
+        <c:axId val="138355840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149816832"/>
+        <c:crossAx val="138357376"/>
+        <c:crossesAt val="84"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="138357376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138355840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -460,87 +386,159 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
+      <c:barChart>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Last 7 Days'!$J$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
-              <c:f>Totals!$I$3:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
-                <c:ptCount val="7"/>
+            <c:strRef>
+              <c:f>'Last 7 Days'!$I$24:$I$65</c:f>
+              <c:strCache>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>43404</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43403</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43402</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43401</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43400</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43399</c:v>
+                  <c:v> </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> </c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Totals!$J$3:$J$9</c:f>
+              <c:f>'Last 7 Days'!$J$24:$J$65</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.89</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.55</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.78</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.88</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,42 +553,40 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="149862656"/>
-        <c:axId val="149864448"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:dateAx>
-        <c:axId val="149862656"/>
+        <c:axId val="138397952"/>
+        <c:axId val="138403840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="138397952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="d\-mmm" sourceLinked="1"/>
+        <c:axPos val="l"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149864448"/>
-        <c:crossesAt val="84"/>
+        <c:crossAx val="138403840"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="149864448"/>
+        <c:axId val="138403840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149862656"/>
+        <c:crossAx val="138397952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,7 +834,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72.73</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -892,11 +888,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="149872000"/>
-        <c:axId val="151823488"/>
+        <c:axId val="139055104"/>
+        <c:axId val="139056640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="149872000"/>
+        <c:axId val="139055104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -905,7 +901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151823488"/>
+        <c:crossAx val="139056640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -913,7 +909,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151823488"/>
+        <c:axId val="139056640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -925,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149872000"/>
+        <c:crossAx val="139055104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1104,7 +1100,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>76.67</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -1146,7 +1142,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>100</c:v>
@@ -1155,7 +1151,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>100</c:v>
@@ -1173,7 +1169,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -1200,7 +1196,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>100</c:v>
@@ -1209,7 +1205,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83.33</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>100</c:v>
@@ -1227,11 +1223,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151845504"/>
-        <c:axId val="150172032"/>
+        <c:axId val="139074560"/>
+        <c:axId val="139100928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151845504"/>
+        <c:axId val="139074560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1240,7 +1236,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150172032"/>
+        <c:crossAx val="139100928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1248,7 +1244,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150172032"/>
+        <c:axId val="139100928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1260,7 +1256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151845504"/>
+        <c:crossAx val="139074560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,7 +1435,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>76.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -1457,7 +1453,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.12</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
@@ -1481,7 +1477,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>100</c:v>
@@ -1490,7 +1486,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.67</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>100</c:v>
@@ -1535,16 +1531,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>93.33</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.33</c:v>
+                  <c:v>83.33</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>100</c:v>
@@ -1562,11 +1558,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151867776"/>
-        <c:axId val="151869312"/>
+        <c:axId val="139158656"/>
+        <c:axId val="139160192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151867776"/>
+        <c:axId val="139158656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1575,7 +1571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151869312"/>
+        <c:crossAx val="139160192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1583,7 +1579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151869312"/>
+        <c:axId val="139160192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1595,7 +1591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151867776"/>
+        <c:crossAx val="139158656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1774,7 +1770,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>85.52</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -1792,10 +1788,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>88.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -1825,10 +1821,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>86.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89.99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -1852,7 +1848,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62.17</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>100</c:v>
@@ -1867,7 +1863,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.23</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
@@ -1876,10 +1872,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>93.33</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>58.33</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>100</c:v>
@@ -1897,11 +1893,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="151902464"/>
-        <c:axId val="151986176"/>
+        <c:axId val="139191040"/>
+        <c:axId val="139192576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="151902464"/>
+        <c:axId val="139191040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +1906,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151986176"/>
+        <c:crossAx val="139192576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1918,7 +1914,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151986176"/>
+        <c:axId val="139192576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1930,7 +1926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151902464"/>
+        <c:crossAx val="139191040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,13 +2105,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -2130,7 +2126,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.56</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -2163,7 +2159,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.77</c:v>
+                  <c:v>89.99</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -2178,7 +2174,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71.67</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -2187,10 +2183,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>62.17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.459999999999994</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>100</c:v>
@@ -2202,7 +2198,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>98.23</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
@@ -2232,11 +2228,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="152029440"/>
-        <c:axId val="150212608"/>
+        <c:axId val="137976064"/>
+        <c:axId val="138813440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="152029440"/>
+        <c:axId val="137976064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150212608"/>
+        <c:crossAx val="138813440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2253,7 +2249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150212608"/>
+        <c:axId val="138813440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2265,7 +2261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152029440"/>
+        <c:crossAx val="137976064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2447,13 +2443,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.67</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -2468,7 +2464,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>36.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -2498,10 +2494,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>97.77</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -2516,7 +2512,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>88.33</c:v>
+                  <c:v>71.67</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -2528,7 +2524,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.33</c:v>
+                  <c:v>81.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>100</c:v>
@@ -2555,7 +2551,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.33</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2570,11 +2566,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150220160"/>
-        <c:axId val="151995520"/>
+        <c:axId val="139296768"/>
+        <c:axId val="139298304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150220160"/>
+        <c:axId val="139296768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2583,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151995520"/>
+        <c:crossAx val="139298304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2591,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151995520"/>
+        <c:axId val="139298304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2603,7 +2599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150220160"/>
+        <c:crossAx val="139296768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2635,7 +2631,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2783,19 +2778,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>43.12</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>86.67</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>86.67</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>100</c:v>
@@ -2807,35 +2802,35 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>92.89</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>100</c:v>
-                </c:pt>
                 <c:pt idx="18">
                   <c:v>100</c:v>
                 </c:pt>
@@ -2852,7 +2847,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>88.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -2864,7 +2859,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>68.33</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>100</c:v>
@@ -2891,7 +2886,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>50.83</c:v>
+                  <c:v>88.33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2906,11 +2901,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="150451328"/>
-        <c:axId val="150452864"/>
+        <c:axId val="139249152"/>
+        <c:axId val="139250688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="150451328"/>
+        <c:axId val="139249152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2919,7 +2914,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150452864"/>
+        <c:crossAx val="139250688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2927,7 +2922,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150452864"/>
+        <c:axId val="139250688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2939,7 +2934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150451328"/>
+        <c:crossAx val="139249152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2961,19 +2956,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>3173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>168273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2992,18 +2987,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>3173</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>504824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>615950</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>168273</xdr:rowOff>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3553,16 +3548,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J42"/>
+  <dimension ref="A2:L42"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -3629,164 +3625,170 @@
         <v>89.88</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.45">
+    <row r="22" spans="9:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
         <v>0</v>
       </c>
-      <c r="J23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J24" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
         <v>0</v>
       </c>
-      <c r="J25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J25" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
         <v>0</v>
       </c>
-      <c r="J26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
         <v>0</v>
       </c>
-      <c r="J27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>0</v>
       </c>
-      <c r="J28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J29" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
         <v>0</v>
       </c>
-      <c r="J30">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>0</v>
       </c>
-      <c r="J31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.45">
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
         <v>0</v>
       </c>
-      <c r="J32">
-        <v>99.78</v>
+      <c r="J32" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
         <v>0</v>
       </c>
-      <c r="J33">
-        <v>99.78</v>
+      <c r="J33" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>0</v>
       </c>
-      <c r="J34">
-        <v>98.78</v>
+      <c r="J34" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
         <v>0</v>
       </c>
-      <c r="J35">
-        <v>97.99</v>
+      <c r="J35" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
         <v>0</v>
       </c>
-      <c r="J36">
-        <v>96.9</v>
+      <c r="J36" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
         <v>0</v>
       </c>
-      <c r="J37">
-        <v>95.78</v>
+      <c r="J37" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
         <v>0</v>
       </c>
-      <c r="J38">
-        <v>90.67</v>
+      <c r="J38" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
         <v>0</v>
       </c>
-      <c r="J39">
-        <v>87.9</v>
+      <c r="J39" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
         <v>0</v>
       </c>
-      <c r="J40">
-        <v>86.89</v>
+      <c r="J40" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:10" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
         <v>0</v>
       </c>
-      <c r="J41">
-        <v>85.89</v>
+      <c r="J41" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="9:10" x14ac:dyDescent="0.45">
@@ -3806,16 +3808,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="I4" sqref="I4:L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
-    <col min="9" max="9" width="30.59765625" customWidth="1"/>
+    <col min="9" max="9" width="25.59765625" customWidth="1"/>
     <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3849,7 +3851,7 @@
         <v>100</v>
       </c>
       <c r="K6">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3863,7 +3865,7 @@
         <v>100</v>
       </c>
       <c r="K7">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3877,7 +3879,7 @@
         <v>100</v>
       </c>
       <c r="K8">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3891,7 +3893,7 @@
         <v>100</v>
       </c>
       <c r="K9">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3905,7 +3907,7 @@
         <v>100</v>
       </c>
       <c r="K10">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3919,7 +3921,7 @@
         <v>100</v>
       </c>
       <c r="K11">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3933,7 +3935,7 @@
         <v>100</v>
       </c>
       <c r="K12">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3947,7 +3949,7 @@
         <v>100</v>
       </c>
       <c r="K13">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3961,7 +3963,7 @@
         <v>100</v>
       </c>
       <c r="K14">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3975,7 +3977,7 @@
         <v>100</v>
       </c>
       <c r="K15">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3989,7 +3991,7 @@
         <v>100</v>
       </c>
       <c r="K16">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -4003,7 +4005,7 @@
         <v>100</v>
       </c>
       <c r="K17">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4017,7 +4019,7 @@
         <v>100</v>
       </c>
       <c r="K18">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>100</v>
       </c>
       <c r="K19">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4045,7 +4047,7 @@
         <v>100</v>
       </c>
       <c r="K20">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4059,7 +4061,7 @@
         <v>100</v>
       </c>
       <c r="K21">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4073,7 +4075,7 @@
         <v>100</v>
       </c>
       <c r="K22">
-        <v>1064</v>
+        <v>1032</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4087,7 +4089,7 @@
         <v>100</v>
       </c>
       <c r="K23">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>100</v>
       </c>
       <c r="K24">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4115,7 +4117,7 @@
         <v>100</v>
       </c>
       <c r="K25">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4129,7 +4131,7 @@
         <v>100</v>
       </c>
       <c r="K26">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4143,7 +4145,7 @@
         <v>100</v>
       </c>
       <c r="K27">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4157,7 +4159,7 @@
         <v>100</v>
       </c>
       <c r="K28">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4168,13 +4170,13 @@
         <v>29</v>
       </c>
       <c r="J29">
-        <v>72.73</v>
+        <v>100</v>
       </c>
       <c r="K29">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L29">
-        <v>192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
@@ -4185,7 +4187,7 @@
         <v>100</v>
       </c>
       <c r="K30">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4199,7 +4201,7 @@
         <v>100</v>
       </c>
       <c r="K31">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4213,7 +4215,7 @@
         <v>100</v>
       </c>
       <c r="K32">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4227,7 +4229,7 @@
         <v>100</v>
       </c>
       <c r="K33">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4241,7 +4243,7 @@
         <v>100</v>
       </c>
       <c r="K34">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4255,7 +4257,7 @@
         <v>100</v>
       </c>
       <c r="K35">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4269,7 +4271,7 @@
         <v>100</v>
       </c>
       <c r="K36">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4283,7 +4285,7 @@
         <v>100</v>
       </c>
       <c r="K37">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4297,7 +4299,7 @@
         <v>100</v>
       </c>
       <c r="K38">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4311,7 +4313,7 @@
         <v>100</v>
       </c>
       <c r="K39">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4325,7 +4327,7 @@
         <v>100</v>
       </c>
       <c r="K40">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4339,7 +4341,7 @@
         <v>100</v>
       </c>
       <c r="K41">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4353,9 +4355,23 @@
         <v>100</v>
       </c>
       <c r="K42">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>27916</v>
+      </c>
+      <c r="L46">
         <v>0</v>
       </c>
     </row>
@@ -4368,16 +4384,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -4407,13 +4422,13 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>76.67</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -4603,13 +4618,13 @@
         <v>20</v>
       </c>
       <c r="J20">
-        <v>27.4</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>960</v>
       </c>
       <c r="L20">
-        <v>697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
@@ -4645,13 +4660,13 @@
         <v>23</v>
       </c>
       <c r="J23">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
@@ -4729,13 +4744,13 @@
         <v>29</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
@@ -4855,13 +4870,13 @@
         <v>38</v>
       </c>
       <c r="J38">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>960</v>
       </c>
       <c r="L38">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
@@ -4897,13 +4912,13 @@
         <v>41</v>
       </c>
       <c r="J41">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="K41">
         <v>960</v>
       </c>
       <c r="L41">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
@@ -4918,6 +4933,20 @@
       </c>
       <c r="L42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>99.52</v>
+      </c>
+      <c r="K46">
+        <v>39629</v>
+      </c>
+      <c r="L46">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -4928,16 +4957,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -4967,13 +4995,13 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -5051,13 +5079,13 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>88.12</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>960</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -5163,13 +5191,13 @@
         <v>20</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="K20">
         <v>960</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
@@ -5205,13 +5233,13 @@
         <v>23</v>
       </c>
       <c r="J23">
-        <v>86.67</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
@@ -5415,13 +5443,13 @@
         <v>38</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K38">
         <v>960</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
@@ -5443,13 +5471,13 @@
         <v>40</v>
       </c>
       <c r="J40">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="K40">
         <v>960</v>
       </c>
       <c r="L40">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
@@ -5457,13 +5485,13 @@
         <v>41</v>
       </c>
       <c r="J41">
-        <v>58.33</v>
+        <v>83.33</v>
       </c>
       <c r="K41">
         <v>960</v>
       </c>
       <c r="L41">
-        <v>400</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
@@ -5478,6 +5506,20 @@
       </c>
       <c r="L42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>97.03</v>
+      </c>
+      <c r="K46">
+        <v>39629</v>
+      </c>
+      <c r="L46">
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -5489,16 +5531,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="K50" sqref="K50"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -5528,13 +5569,13 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>85.52</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -5612,13 +5653,13 @@
         <v>12</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>88.12</v>
       </c>
       <c r="K12">
         <v>960</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
@@ -5626,13 +5667,13 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>960</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -5766,13 +5807,13 @@
         <v>23</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>86.67</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
@@ -5780,13 +5821,13 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <v>89.99</v>
+        <v>100</v>
       </c>
       <c r="K24">
         <v>1438</v>
       </c>
       <c r="L24">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
@@ -5892,13 +5933,13 @@
         <v>32</v>
       </c>
       <c r="J32">
-        <v>62.17</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>1438</v>
       </c>
       <c r="L32">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
@@ -5962,13 +6003,13 @@
         <v>37</v>
       </c>
       <c r="J37">
-        <v>98.23</v>
+        <v>100</v>
       </c>
       <c r="K37">
         <v>960</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
@@ -6004,13 +6045,13 @@
         <v>40</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="K40">
         <v>960</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
@@ -6018,13 +6059,13 @@
         <v>41</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>58.33</v>
       </c>
       <c r="K41">
         <v>960</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
@@ -6039,6 +6080,20 @@
       </c>
       <c r="L42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>98.22</v>
+      </c>
+      <c r="K46">
+        <v>39629</v>
+      </c>
+      <c r="L46">
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -6049,7 +6104,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
@@ -6057,6 +6112,7 @@
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -6086,13 +6142,13 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>85.52</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -6114,13 +6170,13 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>960</v>
       </c>
       <c r="L8">
-        <v>336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -6184,13 +6240,13 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>36.56</v>
+        <v>90</v>
       </c>
       <c r="K13">
         <v>960</v>
       </c>
       <c r="L13">
-        <v>609</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -6338,13 +6394,13 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <v>97.77</v>
+        <v>89.99</v>
       </c>
       <c r="K24">
         <v>1438</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
@@ -6408,13 +6464,13 @@
         <v>29</v>
       </c>
       <c r="J29">
-        <v>71.67</v>
+        <v>100</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
@@ -6450,13 +6506,13 @@
         <v>32</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>62.17</v>
       </c>
       <c r="K32">
         <v>1438</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
@@ -6464,13 +6520,13 @@
         <v>33</v>
       </c>
       <c r="J33">
-        <v>81.459999999999994</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>960</v>
       </c>
       <c r="L33">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
@@ -6520,13 +6576,13 @@
         <v>37</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>98.23</v>
       </c>
       <c r="K37">
         <v>960</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
@@ -6597,6 +6653,20 @@
       </c>
       <c r="L42">
         <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>97.63</v>
+      </c>
+      <c r="K46">
+        <v>39629</v>
+      </c>
+      <c r="L46">
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -6607,16 +6677,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -6654,13 +6723,13 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -6682,13 +6751,13 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>86.67</v>
+        <v>65</v>
       </c>
       <c r="K8">
         <v>960</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -6752,13 +6821,13 @@
         <v>13</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>36.56</v>
       </c>
       <c r="K13">
         <v>960</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
@@ -6892,13 +6961,13 @@
         <v>23</v>
       </c>
       <c r="J23">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
@@ -6906,13 +6975,13 @@
         <v>24</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>97.77</v>
       </c>
       <c r="K24">
         <v>1438</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
@@ -6976,13 +7045,13 @@
         <v>29</v>
       </c>
       <c r="J29">
-        <v>88.33</v>
+        <v>71.67</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>112</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
@@ -7032,13 +7101,13 @@
         <v>33</v>
       </c>
       <c r="J33">
-        <v>68.33</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="K33">
         <v>960</v>
       </c>
       <c r="L33">
-        <v>304</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
@@ -7158,13 +7227,27 @@
         <v>42</v>
       </c>
       <c r="J42">
-        <v>88.33</v>
+        <v>100</v>
       </c>
       <c r="K42">
         <v>960</v>
       </c>
       <c r="L42">
-        <v>112</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>96.4</v>
+      </c>
+      <c r="K46">
+        <v>39629</v>
+      </c>
+      <c r="L46">
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
@@ -7176,16 +7259,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="25.59765625" customWidth="1"/>
+    <col min="10" max="12" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.45">
@@ -7215,13 +7297,13 @@
         <v>6</v>
       </c>
       <c r="J6">
-        <v>43.12</v>
+        <v>75</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>546</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
@@ -7243,13 +7325,13 @@
         <v>8</v>
       </c>
       <c r="J8">
-        <v>100</v>
+        <v>86.67</v>
       </c>
       <c r="K8">
         <v>960</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
@@ -7271,13 +7353,13 @@
         <v>10</v>
       </c>
       <c r="J10">
-        <v>86.67</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>960</v>
       </c>
       <c r="L10">
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
@@ -7327,13 +7409,13 @@
         <v>14</v>
       </c>
       <c r="J14">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>960</v>
       </c>
       <c r="L14">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
@@ -7355,13 +7437,13 @@
         <v>16</v>
       </c>
       <c r="J16">
-        <v>92.89</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>900</v>
       </c>
       <c r="L16">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
@@ -7453,13 +7535,13 @@
         <v>23</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
@@ -7537,13 +7619,13 @@
         <v>29</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>88.33</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
@@ -7593,13 +7675,13 @@
         <v>33</v>
       </c>
       <c r="J33">
-        <v>100</v>
+        <v>68.33</v>
       </c>
       <c r="K33">
         <v>960</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
@@ -7719,13 +7801,27 @@
         <v>42</v>
       </c>
       <c r="J42">
-        <v>50.83</v>
+        <v>88.33</v>
       </c>
       <c r="K42">
         <v>960</v>
       </c>
       <c r="L42">
-        <v>472</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>43</v>
+      </c>
+      <c r="J46">
+        <v>97.5</v>
+      </c>
+      <c r="K46">
+        <v>39629</v>
+      </c>
+      <c r="L46">
+        <v>992</v>
       </c>
     </row>
   </sheetData>

--- a/FouexUpTime-Test1.xlsx
+++ b/FouexUpTime-Test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="75" yWindow="-203" windowWidth="19493" windowHeight="15788"/>
+    <workbookView xWindow="-30" yWindow="38" windowWidth="13958" windowHeight="12413"/>
   </bookViews>
   <sheets>
     <sheet name="Last 7 Days" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="52">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -39,6 +39,27 @@
   </si>
   <si>
     <t>Total Downtime Minutes</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Monday</t>
   </si>
   <si>
     <t>Angel (AN1) 0003</t>
@@ -154,6 +175,9 @@
   <si>
     <t>Totals</t>
   </si>
+  <si>
+    <t>Report Date</t>
+  </si>
 </sst>
 </file>
 
@@ -188,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -196,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -251,34 +278,33 @@
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>'Last 7 Days'!$I$3:$I$9</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>43404</c:v>
+                  <c:v>Sunday</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43403</c:v>
+                  <c:v>Saturday</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43402</c:v>
+                  <c:v>Friday</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43401</c:v>
+                  <c:v>Thursday</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43400</c:v>
+                  <c:v>Wednesday</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43399</c:v>
+                  <c:v>Tuesday</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43398</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Monday</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -290,22 +316,22 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.89</c:v>
+                  <c:v>97.98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.67</c:v>
+                  <c:v>97.86</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>94.55</c:v>
+                  <c:v>97.03</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>95.78</c:v>
+                  <c:v>98.22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.67</c:v>
+                  <c:v>97.63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>89.88</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -321,12 +347,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="138355840"/>
-        <c:axId val="138357376"/>
+        <c:axId val="130823296"/>
+        <c:axId val="130824832"/>
         <c:axId val="0"/>
       </c:bar3DChart>
-      <c:dateAx>
-        <c:axId val="138355840"/>
+      <c:catAx>
+        <c:axId val="130823296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -336,14 +362,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138357376"/>
+        <c:crossAx val="130824832"/>
         <c:crossesAt val="84"/>
         <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:baseTimeUnit val="days"/>
-      </c:dateAx>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="138357376"/>
+        <c:axId val="130824832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -355,7 +382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138355840"/>
+        <c:crossAx val="130823296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -414,131 +441,239 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Last 7 Days'!$I$24:$I$65</c:f>
+              <c:f>'Last 7 Days'!$I$24:$I$62</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v> </c:v>
+                  <c:v>Angel (AN1) 0003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v> </c:v>
+                  <c:v>BIRChanger Green (BG1) 0039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> </c:v>
+                  <c:v>Blacfriars 0018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> </c:v>
+                  <c:v>Brent Cross (BC1) 0028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> </c:v>
+                  <c:v>Brent Cross (BC2) 0029</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> </c:v>
+                  <c:v>Chatham (CH1) 0034</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v> </c:v>
+                  <c:v>Cherwell Valley (CV1) 0055</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v> </c:v>
+                  <c:v>Croydon Whitgift Centre (CD1) 0027</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v> </c:v>
+                  <c:v>Fullham Broadway (FB)  0015</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v> </c:v>
+                  <c:v>Heathrow (HQ1) 0049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v> </c:v>
+                  <c:v>Kings Cross 1 (KX1) 0022</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v> </c:v>
+                  <c:v>Kings Cross 2 (KX2) 0023</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v> </c:v>
+                  <c:v>Kings Cross 3 (KX3) 0045</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v> </c:v>
+                  <c:v>Lakeside Brompton (LS1) 0037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v> </c:v>
+                  <c:v>London Bridge (LB1) 0020</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v> </c:v>
+                  <c:v>London Gateway (LG1) 0006</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v> </c:v>
+                  <c:v>Medway South (MS1) 0008</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v> </c:v>
+                  <c:v>Oxford Circus (OX1) 0021</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v> </c:v>
+                  <c:v>Oxford Welcome Break (OW1) 0007</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>P&amp;O Office 0041</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>P&amp;O Ship 0040</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Paddington Station (PD1) 0019</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Reading Oracle (RD1) 0030</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Romford Mercury (RF1) 0033</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>RX1 0047</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>South Mimms (SM1) 0010</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Stansted (ST1) 0016</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Surrey Quays (SQ1) 0012</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Thurrock (TH1) 0004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Toddington (TD1) 0005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Uxbridge (UX1) 0046</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Vauxhall 1 (VH1) 0013</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Victoria 1 (VC1) 0031 </c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Victoria 2 (VC2) 0032</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Westfield (WF1) 0014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Westfield London (WL1) 0048</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Westfields2 0017 </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Last 7 Days'!$J$24:$J$65</c:f>
+              <c:f>'Last 7 Days'!$J$24:$J$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>94.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>94.56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>92.09</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>94.19</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>98.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>88.59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>99.46</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>88.72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>97.15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>98.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83.16</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>94.22</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>97.12</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99.72</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>99.22</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.96</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>90.94</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,11 +688,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="138397952"/>
-        <c:axId val="138403840"/>
+        <c:axId val="146122624"/>
+        <c:axId val="146124160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="138397952"/>
+        <c:axId val="146122624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +701,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138403840"/>
+        <c:crossAx val="146124160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -574,7 +709,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138403840"/>
+        <c:axId val="146124160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -586,7 +721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138397952"/>
+        <c:crossAx val="146122624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -888,11 +1023,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139055104"/>
-        <c:axId val="139056640"/>
+        <c:axId val="147787136"/>
+        <c:axId val="147846272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139055104"/>
+        <c:axId val="147787136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -901,7 +1036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139056640"/>
+        <c:crossAx val="147846272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -909,7 +1044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139056640"/>
+        <c:axId val="147846272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -921,7 +1056,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139055104"/>
+        <c:crossAx val="147787136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1109,13 +1244,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>50.73</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>87.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
@@ -1136,7 +1271,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>96.56</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>100</c:v>
@@ -1169,7 +1304,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>80</c:v>
+                  <c:v>81.56</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -1223,11 +1358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139074560"/>
-        <c:axId val="139100928"/>
+        <c:axId val="147952768"/>
+        <c:axId val="147954304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139074560"/>
+        <c:axId val="147952768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1236,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139100928"/>
+        <c:crossAx val="147954304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1244,7 +1379,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139100928"/>
+        <c:axId val="147954304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1256,7 +1391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139074560"/>
+        <c:crossAx val="147952768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1435,7 +1570,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>76.67</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -1444,13 +1579,13 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>98.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>100</c:v>
@@ -1477,7 +1612,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>27.4</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>100</c:v>
@@ -1486,7 +1621,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>100</c:v>
@@ -1504,7 +1639,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>38.33</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -1531,7 +1666,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>95</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>100</c:v>
@@ -1540,7 +1675,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83.33</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>100</c:v>
@@ -1558,11 +1693,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139158656"/>
-        <c:axId val="139160192"/>
+        <c:axId val="148339328"/>
+        <c:axId val="148353408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139158656"/>
+        <c:axId val="148339328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1571,7 +1706,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139160192"/>
+        <c:crossAx val="148353408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1579,7 +1714,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139160192"/>
+        <c:axId val="148353408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1591,7 +1726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139158656"/>
+        <c:crossAx val="148339328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1770,7 +1905,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>76.67</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -1788,7 +1923,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>88.12</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>100</c:v>
@@ -1812,7 +1947,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>27.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>100</c:v>
@@ -1821,7 +1956,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86.67</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>100</c:v>
@@ -1866,16 +2001,16 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>93.33</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>58.33</c:v>
+                  <c:v>83.33</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>100</c:v>
@@ -1893,11 +2028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139191040"/>
-        <c:axId val="139192576"/>
+        <c:axId val="148263296"/>
+        <c:axId val="148264832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139191040"/>
+        <c:axId val="148263296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1906,7 +2041,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139192576"/>
+        <c:crossAx val="148264832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1914,7 +2049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139192576"/>
+        <c:axId val="148264832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1926,7 +2061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139191040"/>
+        <c:crossAx val="148263296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2105,7 +2240,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>85.52</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
@@ -2123,10 +2258,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>88.12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -2156,10 +2291,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>86.67</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>89.99</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -2183,7 +2318,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62.17</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>100</c:v>
@@ -2198,7 +2333,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>98.23</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
@@ -2207,10 +2342,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>93.33</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>58.33</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>100</c:v>
@@ -2228,11 +2363,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137976064"/>
-        <c:axId val="138813440"/>
+        <c:axId val="76302208"/>
+        <c:axId val="76303744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137976064"/>
+        <c:axId val="76302208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="138813440"/>
+        <c:crossAx val="76303744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2249,7 +2384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="138813440"/>
+        <c:axId val="76303744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2261,7 +2396,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137976064"/>
+        <c:crossAx val="76302208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2443,13 +2578,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>85.52</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>65</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -2464,7 +2599,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36.56</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -2497,7 +2632,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.77</c:v>
+                  <c:v>89.99</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -2512,7 +2647,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>71.67</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -2521,10 +2656,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>62.17</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>81.459999999999994</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>100</c:v>
@@ -2536,7 +2671,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>98.23</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>100</c:v>
@@ -2566,11 +2701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139296768"/>
-        <c:axId val="139298304"/>
+        <c:axId val="76311936"/>
+        <c:axId val="148321408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139296768"/>
+        <c:axId val="76311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2579,7 +2714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139298304"/>
+        <c:crossAx val="148321408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139298304"/>
+        <c:axId val="148321408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2599,7 +2734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139296768"/>
+        <c:crossAx val="76311936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2778,13 +2913,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.67</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>100</c:v>
@@ -2799,7 +2934,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>36.56</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100</c:v>
@@ -2829,10 +2964,10 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>97.77</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>100</c:v>
@@ -2847,7 +2982,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>88.33</c:v>
+                  <c:v>71.67</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>100</c:v>
@@ -2859,7 +2994,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>68.33</c:v>
+                  <c:v>81.459999999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>100</c:v>
@@ -2886,7 +3021,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>88.33</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2901,11 +3036,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="139249152"/>
-        <c:axId val="139250688"/>
+        <c:axId val="76280960"/>
+        <c:axId val="76282496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="139249152"/>
+        <c:axId val="76280960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2914,7 +3049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139250688"/>
+        <c:crossAx val="76282496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2922,7 +3057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="139250688"/>
+        <c:axId val="76282496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -2934,7 +3069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139249152"/>
+        <c:crossAx val="76280960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3548,11 +3683,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L42"/>
+  <dimension ref="A2:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3566,63 +3699,63 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43408.541805555556</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I3" s="2">
-        <v>43404</v>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="J3">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I4" s="2">
-        <v>43403</v>
+      <c r="I4" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="J4">
-        <v>99.89</v>
+        <v>97.98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I5" s="2">
-        <v>43402</v>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J5">
-        <v>98.67</v>
+        <v>97.86</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I6" s="2">
-        <v>43401</v>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>94.55</v>
+        <v>97.03</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I7" s="2">
-        <v>43400</v>
+      <c r="I7" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>95.78</v>
+        <v>98.22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I8" s="2">
-        <v>43399</v>
+      <c r="I8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="J8">
-        <v>97.67</v>
+        <v>97.63</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="I9" s="2">
-        <v>43398</v>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>89.88</v>
+        <v>96.4</v>
       </c>
     </row>
     <row r="22" spans="9:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -3649,154 +3782,534 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="J24">
+        <v>94.13</v>
+      </c>
+      <c r="K24">
+        <v>12360</v>
+      </c>
+      <c r="L24">
+        <v>726</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>100</v>
+      </c>
+      <c r="K25">
+        <v>18814</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>0</v>
-      </c>
-      <c r="J26" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>94.56</v>
+      </c>
+      <c r="K26">
+        <v>12360</v>
+      </c>
+      <c r="L26">
+        <v>672</v>
       </c>
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="J27">
+        <v>92.09</v>
+      </c>
+      <c r="K27">
+        <v>12360</v>
+      </c>
+      <c r="L27">
+        <v>978</v>
       </c>
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28">
+        <v>100</v>
+      </c>
+      <c r="K28">
+        <v>12360</v>
+      </c>
+      <c r="L28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>0</v>
-      </c>
-      <c r="J29" t="s">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="J29">
+        <v>94.19</v>
+      </c>
+      <c r="K29">
+        <v>12360</v>
+      </c>
+      <c r="L29">
+        <v>718</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>0</v>
-      </c>
-      <c r="J30" t="s">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="J30">
+        <v>98.16</v>
+      </c>
+      <c r="K30">
+        <v>12360</v>
+      </c>
+      <c r="L30">
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>0</v>
-      </c>
-      <c r="J31" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>88.59</v>
+      </c>
+      <c r="K31">
+        <v>12360</v>
+      </c>
+      <c r="L31">
+        <v>1410</v>
       </c>
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>0</v>
-      </c>
-      <c r="J32" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="9:10" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="J32">
+        <v>100</v>
+      </c>
+      <c r="K32">
+        <v>12360</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>0</v>
-      </c>
-      <c r="J33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" x14ac:dyDescent="0.45">
+        <v>22</v>
+      </c>
+      <c r="J33">
+        <v>100</v>
+      </c>
+      <c r="K33">
+        <v>12360</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>0</v>
-      </c>
-      <c r="J34" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="J34">
+        <v>100</v>
+      </c>
+      <c r="K34">
+        <v>11520</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>0</v>
-      </c>
-      <c r="J35" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+      <c r="J35">
+        <v>100</v>
+      </c>
+      <c r="K35">
+        <v>11520</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+      <c r="J36">
+        <v>99.46</v>
+      </c>
+      <c r="K36">
+        <v>11520</v>
+      </c>
+      <c r="L36">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>0</v>
-      </c>
-      <c r="J37" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="J37">
+        <v>100</v>
+      </c>
+      <c r="K37">
+        <v>12360</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+      <c r="J38">
+        <v>88.72</v>
+      </c>
+      <c r="K38">
+        <v>12360</v>
+      </c>
+      <c r="L38">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="J39">
+        <v>100</v>
+      </c>
+      <c r="K39">
+        <v>18814</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+      <c r="J40">
+        <v>100</v>
+      </c>
+      <c r="K40">
+        <v>18660</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J41" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+      <c r="J41">
+        <v>97.15</v>
+      </c>
+      <c r="K41">
+        <v>12360</v>
+      </c>
+      <c r="L41">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>0</v>
-      </c>
-      <c r="J42" t="s">
-        <v>0</v>
+        <v>31</v>
+      </c>
+      <c r="J42">
+        <v>98.13</v>
+      </c>
+      <c r="K42">
+        <v>18814</v>
+      </c>
+      <c r="L42">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I43" t="s">
+        <v>32</v>
+      </c>
+      <c r="J43">
+        <v>100</v>
+      </c>
+      <c r="K43">
+        <v>18814</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I44" t="s">
+        <v>33</v>
+      </c>
+      <c r="J44">
+        <v>100</v>
+      </c>
+      <c r="K44">
+        <v>12360</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+      <c r="J45">
+        <v>100</v>
+      </c>
+      <c r="K45">
+        <v>12360</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I46" t="s">
+        <v>35</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+      <c r="K46">
+        <v>12360</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I47" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47">
+        <v>83.16</v>
+      </c>
+      <c r="K47">
+        <v>12360</v>
+      </c>
+      <c r="L47">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="48" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I48" t="s">
+        <v>37</v>
+      </c>
+      <c r="J48">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>12360</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I49" t="s">
+        <v>38</v>
+      </c>
+      <c r="J49">
+        <v>100</v>
+      </c>
+      <c r="K49">
+        <v>18814</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I50" t="s">
+        <v>39</v>
+      </c>
+      <c r="J50">
+        <v>94.22</v>
+      </c>
+      <c r="K50">
+        <v>18814</v>
+      </c>
+      <c r="L50">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I51" t="s">
+        <v>40</v>
+      </c>
+      <c r="J51">
+        <v>97.12</v>
+      </c>
+      <c r="K51">
+        <v>12360</v>
+      </c>
+      <c r="L51">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I52" t="s">
+        <v>41</v>
+      </c>
+      <c r="J52">
+        <v>100</v>
+      </c>
+      <c r="K52">
+        <v>18814</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I53" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53">
+        <v>100</v>
+      </c>
+      <c r="K53">
+        <v>18814</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I54" t="s">
+        <v>43</v>
+      </c>
+      <c r="J54">
+        <v>100</v>
+      </c>
+      <c r="K54">
+        <v>12360</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I55" t="s">
+        <v>44</v>
+      </c>
+      <c r="J55">
+        <v>99.72</v>
+      </c>
+      <c r="K55">
+        <v>12360</v>
+      </c>
+      <c r="L55">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56">
+        <v>99.22</v>
+      </c>
+      <c r="K56">
+        <v>12360</v>
+      </c>
+      <c r="L56">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I57" t="s">
+        <v>46</v>
+      </c>
+      <c r="J57">
+        <v>100</v>
+      </c>
+      <c r="K57">
+        <v>12360</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I58" t="s">
+        <v>47</v>
+      </c>
+      <c r="J58">
+        <v>98.96</v>
+      </c>
+      <c r="K58">
+        <v>12360</v>
+      </c>
+      <c r="L58">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59">
+        <v>90.94</v>
+      </c>
+      <c r="K59">
+        <v>12360</v>
+      </c>
+      <c r="L59">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="60" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I60" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60">
+        <v>100</v>
+      </c>
+      <c r="K60">
+        <v>12360</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="9:12" x14ac:dyDescent="0.45">
+      <c r="I63" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63">
+        <v>97.53</v>
+      </c>
+      <c r="K63">
+        <v>512732</v>
+      </c>
+      <c r="L63">
+        <v>11796</v>
       </c>
     </row>
   </sheetData>
@@ -3810,9 +4323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L46"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:L4"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -3826,7 +4337,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541921296295</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43408</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -3845,13 +4362,13 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>100</v>
       </c>
       <c r="K6">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -3859,13 +4376,13 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
       </c>
       <c r="K7">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -3873,13 +4390,13 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>100</v>
       </c>
       <c r="K8">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -3887,13 +4404,13 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>100</v>
       </c>
       <c r="K9">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3901,13 +4418,13 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
       </c>
       <c r="K10">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -3915,13 +4432,13 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>100</v>
       </c>
       <c r="K11">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -3929,13 +4446,13 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>100</v>
       </c>
       <c r="K12">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -3943,13 +4460,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>100</v>
       </c>
       <c r="K13">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -3957,13 +4474,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
       </c>
       <c r="K14">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -3971,13 +4488,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
       </c>
       <c r="K15">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -3985,13 +4502,13 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -3999,13 +4516,13 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
       </c>
       <c r="K17">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -4013,13 +4530,13 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>100</v>
       </c>
       <c r="K18">
-        <v>612</v>
+        <v>360</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -4027,13 +4544,13 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
       </c>
       <c r="K19">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -4041,13 +4558,13 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>100</v>
       </c>
       <c r="K20">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -4055,13 +4572,13 @@
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
       </c>
       <c r="K21">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -4069,13 +4586,13 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
       </c>
       <c r="K22">
-        <v>1032</v>
+        <v>780</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -4083,13 +4600,13 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>100</v>
       </c>
       <c r="K23">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -4097,13 +4614,13 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
         <v>100</v>
       </c>
       <c r="K24">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -4111,13 +4628,13 @@
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
       </c>
       <c r="K25">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -4125,13 +4642,13 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
       </c>
       <c r="K26">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -4139,13 +4656,13 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
       </c>
       <c r="K27">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -4153,13 +4670,13 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
       </c>
       <c r="K28">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -4167,13 +4684,13 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>100</v>
       </c>
       <c r="K29">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -4181,13 +4698,13 @@
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
       </c>
       <c r="K30">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -4195,13 +4712,13 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
       </c>
       <c r="K31">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -4209,13 +4726,13 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>100</v>
       </c>
       <c r="K32">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -4223,13 +4740,13 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>100</v>
       </c>
       <c r="K33">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -4237,13 +4754,13 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
       </c>
       <c r="K34">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -4251,13 +4768,13 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
       </c>
       <c r="K35">
-        <v>1031</v>
+        <v>779</v>
       </c>
       <c r="L35">
         <v>0</v>
@@ -4265,13 +4782,13 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
       </c>
       <c r="K36">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -4279,13 +4796,13 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>100</v>
       </c>
       <c r="K37">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -4293,13 +4810,13 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>100</v>
       </c>
       <c r="K38">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -4307,13 +4824,13 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
       </c>
       <c r="K39">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L39">
         <v>0</v>
@@ -4321,13 +4838,13 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>100</v>
       </c>
       <c r="K40">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -4335,13 +4852,13 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>100</v>
       </c>
       <c r="K41">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4349,13 +4866,13 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>100</v>
       </c>
       <c r="K42">
-        <v>672</v>
+        <v>420</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -4363,13 +4880,13 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
         <v>100</v>
       </c>
       <c r="K46">
-        <v>27916</v>
+        <v>18592</v>
       </c>
       <c r="L46">
         <v>0</v>
@@ -4400,7 +4917,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541932870372</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43407</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -4419,7 +4942,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>100</v>
@@ -4433,7 +4956,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -4447,7 +4970,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -4461,21 +4984,21 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>50.73</v>
       </c>
       <c r="K9">
         <v>960</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -4489,21 +5012,21 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>87.6</v>
       </c>
       <c r="K11">
         <v>960</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -4517,7 +5040,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -4531,7 +5054,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -4545,7 +5068,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -4559,7 +5082,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -4573,7 +5096,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -4587,21 +5110,21 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
-        <v>100</v>
+        <v>96.56</v>
       </c>
       <c r="K18">
         <v>900</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -4615,7 +5138,7 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -4629,7 +5152,7 @@
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -4643,7 +5166,7 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -4657,7 +5180,7 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -4671,7 +5194,7 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -4685,7 +5208,7 @@
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -4699,7 +5222,7 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -4713,7 +5236,7 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -4727,7 +5250,7 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -4741,21 +5264,21 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
-        <v>80</v>
+        <v>81.56</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -4769,7 +5292,7 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -4783,7 +5306,7 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -4797,7 +5320,7 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -4811,7 +5334,7 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -4825,7 +5348,7 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -4839,7 +5362,7 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -4853,7 +5376,7 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -4867,7 +5390,7 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -4881,7 +5404,7 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -4895,7 +5418,7 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -4909,7 +5432,7 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -4923,7 +5446,7 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -4937,21 +5460,22 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>99.52</v>
+        <v>97.98</v>
       </c>
       <c r="K46">
         <v>39629</v>
       </c>
       <c r="L46">
-        <v>192</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4973,7 +5497,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541932870372</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43406</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -4992,21 +5522,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>76.67</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>224</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -5020,7 +5550,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -5034,21 +5564,21 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>98.33</v>
       </c>
       <c r="K9">
         <v>960</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -5062,21 +5592,21 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K11">
         <v>960</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -5090,7 +5620,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -5104,7 +5634,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -5118,7 +5648,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -5132,7 +5662,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -5146,7 +5676,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -5160,7 +5690,7 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -5174,7 +5704,7 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -5188,21 +5718,21 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
-        <v>27.4</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>960</v>
       </c>
       <c r="L20">
-        <v>697</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -5216,7 +5746,7 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -5230,21 +5760,21 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -5258,7 +5788,7 @@
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -5272,7 +5802,7 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -5286,7 +5816,7 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -5300,7 +5830,7 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -5314,21 +5844,21 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
-        <v>100</v>
+        <v>38.33</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>592</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -5342,7 +5872,7 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -5356,7 +5886,7 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -5370,7 +5900,7 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -5384,7 +5914,7 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -5398,7 +5928,7 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -5412,7 +5942,7 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -5426,7 +5956,7 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -5440,21 +5970,21 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="K38">
         <v>960</v>
       </c>
       <c r="L38">
-        <v>48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -5468,7 +5998,7 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -5482,21 +6012,21 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
-        <v>83.33</v>
+        <v>100</v>
       </c>
       <c r="K41">
         <v>960</v>
       </c>
       <c r="L41">
-        <v>160</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -5510,16 +6040,16 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>97.03</v>
+        <v>97.86</v>
       </c>
       <c r="K46">
         <v>39629</v>
       </c>
       <c r="L46">
-        <v>1177</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -5547,7 +6077,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541944444441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43405</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -5566,21 +6102,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>76.67</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -5594,7 +6130,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -5608,7 +6144,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -5622,7 +6158,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -5636,7 +6172,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -5650,21 +6186,21 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>88.12</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>960</v>
       </c>
       <c r="L12">
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
         <v>100</v>
@@ -5678,7 +6214,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -5692,7 +6228,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -5706,7 +6242,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -5720,7 +6256,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -5734,7 +6270,7 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -5748,7 +6284,7 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -5762,21 +6298,21 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
-        <v>100</v>
+        <v>27.4</v>
       </c>
       <c r="K20">
         <v>960</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>697</v>
       </c>
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -5790,7 +6326,7 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -5804,21 +6340,21 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>86.67</v>
+        <v>95</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>128</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
         <v>100</v>
@@ -5832,7 +6368,7 @@
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -5846,7 +6382,7 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -5860,7 +6396,7 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -5874,7 +6410,7 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -5888,7 +6424,7 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>100</v>
@@ -5902,7 +6438,7 @@
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -5916,7 +6452,7 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -5930,7 +6466,7 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -5944,7 +6480,7 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -5958,7 +6494,7 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -5972,7 +6508,7 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -5986,7 +6522,7 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -6000,7 +6536,7 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -6014,21 +6550,21 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K38">
         <v>960</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -6042,35 +6578,35 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
-        <v>93.33</v>
+        <v>100</v>
       </c>
       <c r="K40">
         <v>960</v>
       </c>
       <c r="L40">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
-        <v>58.33</v>
+        <v>83.33</v>
       </c>
       <c r="K41">
         <v>960</v>
       </c>
       <c r="L41">
-        <v>400</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -6084,16 +6620,16 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>98.22</v>
+        <v>97.03</v>
       </c>
       <c r="K46">
         <v>39629</v>
       </c>
       <c r="L46">
-        <v>706</v>
+        <v>1177</v>
       </c>
     </row>
   </sheetData>
@@ -6120,7 +6656,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541944444441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43404</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -6139,21 +6681,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>85.52</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -6167,7 +6709,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
         <v>100</v>
@@ -6181,7 +6723,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -6195,7 +6737,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -6209,7 +6751,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -6223,35 +6765,35 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
-        <v>100</v>
+        <v>88.12</v>
       </c>
       <c r="K12">
         <v>960</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>960</v>
       </c>
       <c r="L13">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -6265,7 +6807,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -6279,7 +6821,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -6293,7 +6835,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -6307,7 +6849,7 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -6321,7 +6863,7 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -6335,7 +6877,7 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -6349,7 +6891,7 @@
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -6363,7 +6905,7 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -6377,35 +6919,35 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>100</v>
+        <v>86.67</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>89.99</v>
+        <v>100</v>
       </c>
       <c r="K24">
         <v>1438</v>
       </c>
       <c r="L24">
-        <v>144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -6419,7 +6961,7 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -6433,7 +6975,7 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -6447,7 +6989,7 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -6461,7 +7003,7 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
         <v>100</v>
@@ -6475,7 +7017,7 @@
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -6489,7 +7031,7 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -6503,21 +7045,21 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
-        <v>62.17</v>
+        <v>100</v>
       </c>
       <c r="K32">
         <v>1438</v>
       </c>
       <c r="L32">
-        <v>544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
         <v>100</v>
@@ -6531,7 +7073,7 @@
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -6545,7 +7087,7 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -6559,7 +7101,7 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -6573,21 +7115,21 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
-        <v>98.23</v>
+        <v>100</v>
       </c>
       <c r="K37">
         <v>960</v>
       </c>
       <c r="L37">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -6601,7 +7143,7 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -6615,35 +7157,35 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
-        <v>100</v>
+        <v>93.33</v>
       </c>
       <c r="K40">
         <v>960</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
-        <v>100</v>
+        <v>58.33</v>
       </c>
       <c r="K41">
         <v>960</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -6657,16 +7199,16 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>97.63</v>
+        <v>98.22</v>
       </c>
       <c r="K46">
         <v>39629</v>
       </c>
       <c r="L46">
-        <v>940</v>
+        <v>706</v>
       </c>
     </row>
   </sheetData>
@@ -6693,7 +7235,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541956018518</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43403</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -6720,21 +7268,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>100</v>
+        <v>85.52</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -6748,21 +7296,21 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>960</v>
       </c>
       <c r="L8">
-        <v>336</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -6776,7 +7324,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -6790,7 +7338,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -6804,7 +7352,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -6818,21 +7366,21 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>36.56</v>
+        <v>90</v>
       </c>
       <c r="K13">
         <v>960</v>
       </c>
       <c r="L13">
-        <v>609</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -6846,7 +7394,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -6860,7 +7408,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -6874,7 +7422,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -6888,7 +7436,7 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -6902,7 +7450,7 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -6916,7 +7464,7 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -6930,7 +7478,7 @@
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -6944,7 +7492,7 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -6958,7 +7506,7 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>100</v>
@@ -6972,21 +7520,21 @@
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>97.77</v>
+        <v>89.99</v>
       </c>
       <c r="K24">
         <v>1438</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -7000,7 +7548,7 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -7014,7 +7562,7 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -7028,7 +7576,7 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -7042,21 +7590,21 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
-        <v>71.67</v>
+        <v>100</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -7070,7 +7618,7 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -7084,35 +7632,35 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
-        <v>100</v>
+        <v>62.17</v>
       </c>
       <c r="K32">
         <v>1438</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>544</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
-        <v>81.459999999999994</v>
+        <v>100</v>
       </c>
       <c r="K33">
         <v>960</v>
       </c>
       <c r="L33">
-        <v>178</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -7126,7 +7674,7 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -7140,7 +7688,7 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -7154,21 +7702,21 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
-        <v>100</v>
+        <v>98.23</v>
       </c>
       <c r="K37">
         <v>960</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -7182,7 +7730,7 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -7196,7 +7744,7 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -7210,7 +7758,7 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -7224,7 +7772,7 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
         <v>100</v>
@@ -7238,16 +7786,16 @@
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>96.4</v>
+        <v>97.63</v>
       </c>
       <c r="K46">
         <v>39629</v>
       </c>
       <c r="L46">
-        <v>1427</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -7275,7 +7823,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>43404.542060185187</v>
+        <v>43201.541956018518</v>
+      </c>
+      <c r="G2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="4">
+        <v>43402</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
@@ -7294,21 +7848,21 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J6">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>960</v>
       </c>
       <c r="L6">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I7" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J7">
         <v>100</v>
@@ -7322,21 +7876,21 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J8">
-        <v>86.67</v>
+        <v>65</v>
       </c>
       <c r="K8">
         <v>960</v>
       </c>
       <c r="L8">
-        <v>128</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="J9">
         <v>100</v>
@@ -7350,7 +7904,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10">
         <v>100</v>
@@ -7364,7 +7918,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J11">
         <v>100</v>
@@ -7378,7 +7932,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I12" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J12">
         <v>100</v>
@@ -7392,21 +7946,21 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I13" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J13">
-        <v>100</v>
+        <v>36.56</v>
       </c>
       <c r="K13">
         <v>960</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>609</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I14" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="J14">
         <v>100</v>
@@ -7420,7 +7974,7 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I15" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>100</v>
@@ -7434,7 +7988,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="I16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="J16">
         <v>100</v>
@@ -7448,7 +8002,7 @@
     </row>
     <row r="17" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="J17">
         <v>100</v>
@@ -7462,7 +8016,7 @@
     </row>
     <row r="18" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J18">
         <v>100</v>
@@ -7476,7 +8030,7 @@
     </row>
     <row r="19" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="J19">
         <v>100</v>
@@ -7490,7 +8044,7 @@
     </row>
     <row r="20" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I20" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J20">
         <v>100</v>
@@ -7504,7 +8058,7 @@
     </row>
     <row r="21" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I21" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J21">
         <v>100</v>
@@ -7518,7 +8072,7 @@
     </row>
     <row r="22" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="J22">
         <v>100</v>
@@ -7532,35 +8086,35 @@
     </row>
     <row r="23" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I23" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="J23">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K23">
         <v>960</v>
       </c>
       <c r="L23">
-        <v>96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="J24">
-        <v>100</v>
+        <v>97.77</v>
       </c>
       <c r="K24">
         <v>1438</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I25" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="J25">
         <v>100</v>
@@ -7574,7 +8128,7 @@
     </row>
     <row r="26" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I26" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J26">
         <v>100</v>
@@ -7588,7 +8142,7 @@
     </row>
     <row r="27" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I27" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="J27">
         <v>100</v>
@@ -7602,7 +8156,7 @@
     </row>
     <row r="28" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="J28">
         <v>100</v>
@@ -7616,21 +8170,21 @@
     </row>
     <row r="29" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I29" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J29">
-        <v>88.33</v>
+        <v>71.67</v>
       </c>
       <c r="K29">
         <v>960</v>
       </c>
       <c r="L29">
-        <v>112</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I30" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="J30">
         <v>100</v>
@@ -7644,7 +8198,7 @@
     </row>
     <row r="31" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J31">
         <v>100</v>
@@ -7658,7 +8212,7 @@
     </row>
     <row r="32" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I32" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J32">
         <v>100</v>
@@ -7672,21 +8226,21 @@
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I33" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J33">
-        <v>68.33</v>
+        <v>81.459999999999994</v>
       </c>
       <c r="K33">
         <v>960</v>
       </c>
       <c r="L33">
-        <v>304</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>100</v>
@@ -7700,7 +8254,7 @@
     </row>
     <row r="35" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I35" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J35">
         <v>100</v>
@@ -7714,7 +8268,7 @@
     </row>
     <row r="36" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="J36">
         <v>100</v>
@@ -7728,7 +8282,7 @@
     </row>
     <row r="37" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>100</v>
@@ -7742,7 +8296,7 @@
     </row>
     <row r="38" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I38" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>100</v>
@@ -7756,7 +8310,7 @@
     </row>
     <row r="39" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>100</v>
@@ -7770,7 +8324,7 @@
     </row>
     <row r="40" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>100</v>
@@ -7784,7 +8338,7 @@
     </row>
     <row r="41" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I41" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="J41">
         <v>100</v>
@@ -7798,30 +8352,30 @@
     </row>
     <row r="42" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I42" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="J42">
-        <v>88.33</v>
+        <v>100</v>
       </c>
       <c r="K42">
         <v>960</v>
       </c>
       <c r="L42">
-        <v>112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="9:12" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="J46">
-        <v>97.5</v>
+        <v>96.4</v>
       </c>
       <c r="K46">
         <v>39629</v>
       </c>
       <c r="L46">
-        <v>992</v>
+        <v>1427</v>
       </c>
     </row>
   </sheetData>
